--- a/common/MemoryObject.xlsx
+++ b/common/MemoryObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <r>
       <rPr>
@@ -102,6 +102,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">加成效果类型
 </t>
     </r>
@@ -247,6 +254,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>intimany</t>
     </r>
     <r>
@@ -272,6 +286,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>epiphany</t>
     </r>
     <r>
@@ -297,6 +318,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>property</t>
     </r>
     <r>
@@ -322,6 +350,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">mem_addition
 </t>
     </r>
@@ -345,6 +380,36 @@
   </si>
   <si>
     <t>1,2,3,3,3,3</t>
+  </si>
+  <si>
+    <t>洛神赋图</t>
+  </si>
+  <si>
+    <t>2,3,4,5,1,2</t>
+  </si>
+  <si>
+    <t>1,1,3,3,3,3</t>
+  </si>
+  <si>
+    <t>浣溪沙</t>
+  </si>
+  <si>
+    <t>3,4,1,5,2,3</t>
+  </si>
+  <si>
+    <t>2,2,3,3,3,3</t>
+  </si>
+  <si>
+    <t>绝尘笔</t>
+  </si>
+  <si>
+    <t>2,1,3,4,4,5</t>
+  </si>
+  <si>
+    <t>通灵玉璧</t>
+  </si>
+  <si>
+    <t>凤尾虾</t>
   </si>
 </sst>
 </file>
@@ -352,9 +417,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -373,6 +438,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -381,118 +513,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -501,17 +521,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,37 +623,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,145 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,16 +836,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,17 +856,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,8 +894,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,17 +929,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -872,10 +937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,137 +949,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,6 +1093,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1349,13 +1417,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -1444,6 +1512,139 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3">
+        <v>301002</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>301003</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>301004</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
+        <v>301005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3">
+        <v>301006</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/common/MemoryObject.xlsx
+++ b/common/MemoryObject.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView windowWidth="27915" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <r>
       <rPr>
@@ -350,15 +350,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">mem_addition
-</t>
+      <t xml:space="preserve">mem_addition </t>
     </r>
     <r>
       <rPr>
@@ -417,9 +409,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -438,6 +430,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -445,18 +474,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,6 +490,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -477,14 +514,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,7 +544,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -521,62 +566,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,187 +615,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,15 +824,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -852,6 +835,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,8 +868,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,30 +889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -929,6 +903,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -937,10 +929,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,133 +941,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1415,12 +1407,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1516,10 +1508,10 @@
       <c r="A4" s="3">
         <v>301002</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3">
@@ -1528,13 +1520,13 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1542,10 +1534,10 @@
       <c r="A5" s="3">
         <v>301003</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3">
@@ -1554,13 +1546,13 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1568,25 +1560,25 @@
       <c r="A6" s="3">
         <v>301004</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1594,25 +1586,25 @@
       <c r="A7" s="3">
         <v>301005</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1620,30 +1612,31 @@
       <c r="A8" s="3">
         <v>301006</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:7">
+      <c r="B9" s="3"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
